--- a/刷题整理.xlsx
+++ b/刷题整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09441BBD-A7F5-4D90-9BAB-4C338EFFC680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD852188-33E8-46CC-B9DA-2F9040236E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4308" yWindow="252" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="题序总结" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <t>用或逻辑写归并循环的终止条件</t>
   </si>
   <si>
-    <t>滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>median of two sorted arrays</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,90 @@
   </si>
   <si>
     <t>分治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest palindromic substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合只关心首尾两端的子串问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字串问题常用思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container with most water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向遍历复杂度高的，可考虑双向遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序可以方便去重搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter combinations of a phone number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用递归可处理不确定数量的循环嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在多指针时要选择，尤其要发现指针间的走向变化联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove nth node from end of list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只跟踪prev就能找到curr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用双（多）指针避免建表，降低空间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate parenthese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针有解析关系，查找可用二分法，遍历还得双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握N个有序数组归并后第k个元素的求法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,12 +175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,8 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,18 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="5" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -447,10 +533,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -458,10 +547,108 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/刷题整理.xlsx
+++ b/刷题整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD852188-33E8-46CC-B9DA-2F9040236E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAB0A4B-2DA2-42DD-B5F4-3845D8D7746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4308" yWindow="252" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="题序总结" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>链表头dummy结点的妙用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用或逻辑写归并循环的终止条件</t>
   </si>
   <si>
@@ -67,91 +63,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>longest palindromic substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合只关心首尾两端的子串问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字串问题常用思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>container with most water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单向遍历复杂度高的，可考虑双向遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序可以方便去重搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>letter combinations of a phone number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用递归可处理不确定数量的循环嵌套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在多指针时要选择，尤其要发现指针间的走向变化联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove nth node from end of list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只跟踪prev就能找到curr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用双（多）指针避免建表，降低空间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generate parenthese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握N个有序数组归并后第k个元素的求法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regular expression matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握状态表的含义：前i个字串字符与前j个正则字符匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握对于*的迭代转递归，有助于降低复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge k sorted lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next permutation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest valid parenthese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握C++ STL自带操作，主要包含sort, reverse和swap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握运用链表头dummy结点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握C++ STL自带的priority_queue数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search in rotated sorted array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find first and last pos. of element in sorted array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意规范二分法格式：循环条件、迭代式、返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意发现嵌套的递归体，本题可看作两种递归的结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累一维动态表的设计方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累堆栈的设计方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>combination sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trapping rain water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针的优势在于O(1)的空复，这一点要优于堆栈和动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针的移动策略往往需要与某个放缩的不等关系相匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两下标有解析关系，查找可用二分法，遍历还得双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permutations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找全排列时可通过在原数组中交换避免额外空间开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotate image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group anagrams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意有意识地选用rdered/unordered set/map以提高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++11可换用emplace_back代替push_back提高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximum subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分治</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>longest palindromic substring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适合只关心首尾两端的子串问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字串问题常用思路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>container with most water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单向遍历复杂度高的，可考虑双向遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序可以方便去重搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>letter combinations of a phone number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用递归可处理不确定数量的循环嵌套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在多指针时要选择，尤其要发现指针间的走向变化联系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remove nth node from end of list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表、双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只跟踪prev就能找到curr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用双（多）指针避免建表，降低空间复杂度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generate parenthese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度优先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深度优先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针有解析关系，查找可用二分法，遍历还得双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌握N个有序数组归并后第k个元素的求法</t>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规、堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规、分治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累一维动规表的设计方式和递推公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解线段树这一基于分治的区间查改数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge intervals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum path sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可使用数学直接计算通项公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climbing stairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐次线性递推式可转成矩阵快速幂或通项公式降低时复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -522,10 +694,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,30 +705,30 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,32 +736,44 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,16 +781,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,13 +798,13 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,16 +812,16 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,10 +829,233 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/刷题整理.xlsx
+++ b/刷题整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAB0A4B-2DA2-42DD-B5F4-3845D8D7746D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A708AE0E-4120-4334-B4AE-E33FB5C298E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="153">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注意有意识地选用rdered/unordered set/map以提高效率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C++11可换用emplace_back代替push_back提高效率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +320,322 @@
   </si>
   <si>
     <t>edit distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手画动规表可以帮助思考递推式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握两端交换的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimum window substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量避免函数返回类型为大型结构，减少耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻炼细节把控能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>largest rectangle in histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈通常需要首尾各加一个哨兵节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代寻找线性结构中首个更大或更小的元素，用单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary tree inorder traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握先序、中序、后序、层序的非递归写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique binary search trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握卡特兰数的定义式、通项公式和递归式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握卡特兰数的基本问题：出栈顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validate binary search tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握C++自带极限数据INT_MAX, LONG_MIN等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会用long long类型扩展数据范围，防止测试点卡整型极限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symmetric tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary tree level order traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct binary tree from preorder and inorder traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatten binary tree to linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用队列实现迭代判断对称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入队列size实现分层的层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深刻理解先序和中序分别是进栈顺序和出栈顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当正向遍历不方便时，可考虑逆向遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握morris遍历的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重视左子树的最右点，右子树的最左点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>best time to buy and sell stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary tree maximum path sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累两个动规变量同时追踪更新的程序写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximal rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest consecutive sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意有意识地选用ordered/unordered set/map以提高效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unordered_set也是哈希的一种，在仅考虑存在性时有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建哈希有预先建好和动态建立两种，应注意选择最优者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握连续序列遍历的剪枝技巧：只从最左端开始计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯、动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当回溯出现大量冗余节点时，可用哈希表记忆已算结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linked list cycle II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累用快慢指针来检测环的做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累用快慢指针来寻找环入口的做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识并掌握字典树Tries数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习实现双向链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用快慢指针一次遍历确定链表中点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握用两种归并来处理链表排序，尤其注意切断操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximum product subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存与当前最小值的差可避免辅助栈，但要用long long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intersection of two linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累用交叉指针同步遍历来检测链表交汇点的做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>majority element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累用摩尔投票法找到绝对众数的方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,9 +685,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -656,16 +969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="5" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,377 +998,764 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
+      <c r="E11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
         <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>55</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
         <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>169</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/刷题整理.xlsx
+++ b/刷题整理.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myLeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A708AE0E-4120-4334-B4AE-E33FB5C298E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFBA58D-6261-4D6B-93CC-89CA4C0EC340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="题序总结" sheetId="1" r:id="rId1"/>
-    <sheet name="专题总结" sheetId="2" r:id="rId2"/>
+    <sheet name="HOT100" sheetId="1" r:id="rId1"/>
+    <sheet name="剑指offer" sheetId="3" r:id="rId2"/>
+    <sheet name="专题总结" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="314">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,6 +637,650 @@
   </si>
   <si>
     <t>积累用摩尔投票法找到绝对众数的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house robber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of islands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯、并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在允许破坏原数据的情况下，可以不用visit矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习并查集的理论知识和写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意递归写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见139题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kth largest element in an array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习拓扑排序的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习快排与堆排的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵问题可考虑转化成若干个线性问题，用线性方法解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maximal square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规、堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累在矩阵上动规的递推关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invert binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palindrome linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定要明确原数据允不允许破坏，要有恢复的意识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCA of a binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累用或逻辑函数来递归查找LCA节点的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product of array except self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于数组题，拆分成左右两个子问题是重要思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sliding maximum window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列、堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握STL提供的priority_queue模块与deque模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累数据结构的删除运用被动检测、延迟处理的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累单调队列的经验，注意单调线性结构中下标的重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累稀疏表Sparse Table和分组+预处理的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>searching a 2d matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握STL自带的lower_bound和upper_bound函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累从左下角或右上角折线遍历的搜索方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfect squares</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识四平方和定理及其延伸定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving zeros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find the duplicated number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治、位运算、双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累二分法与抽屉原理结合的思路，抓准cnt变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累计数对应二进制位1或0的位运算思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累将数组看成链表的思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialize and deserialize binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longest increasing subsequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握C++中string API的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规、贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove invalid parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巩固正反两次遍历分别检测左括号和右括号的处理方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>best time to buy and sell stock with cooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给动规表加上状态维度，是降低时复的一种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计动规表使得数据满足单调性，方便二分查找降低时复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burst balloons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>279题的一般形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house robber III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规、树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规表+状态维度在树结构上的运用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counting bits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规、位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握x&amp;(x-1)的性质及其与2的n次幂的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top k frequent elements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握priority_queue自定义类型与比较函数的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累获得不讲顺序的前k个数的方法：k-size堆和快排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decode string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习计算器与逆波兰表达式的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集、图论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累使用加权并查集来加速图中DFS/BFS的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queue reconstruction by height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含多维度的排序，要确定一个维度和方向考虑问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition equal subset sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握01背包、完全背包、多重背包三类背包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path sum III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握前缀和的实现技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find all anagrams in a string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累用vector来取代字母哈希的用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find all numbers disappeared in an array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累在原数据上做标记以节省空间的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hamming distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握C++自带的数1函数__builtin_popcount(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累将问题转化为标准背包问题的技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert BST to greater tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diameter of binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subarray sum equals k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识前/后缀和在解决子串问题上的重要性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortest unsorted continuous subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累排序问题中分段分析的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge two binary trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task scheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心、堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累建堆的经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>palindromic substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握字串长度与回文中心的关系与遍历方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握马拉车算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily temperatures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若要找左/右边首个比当前位置大/小，考虑用单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最优策略问题，如果正面思考困难可尝试逆过程思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累动规递推公式的思考方法（回溯、剖分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规、分治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转数组的最小数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累与边界相等则将边界加减一的技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握整数剖分最大乘积的数学推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示数值的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握有限状态机DNF的实现方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺时针打印矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意分情况讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树的后序遍历序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识到树遍历所用栈其实就是关于中序遍历序号的单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂链表的复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累拼接与拆分这种利用next指针降低空复的技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树与双向链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习展平二叉树的技术：双重迭代找leftmax节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流中的中位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握用大小堆求中位数的在线算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把数组排成最小的数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累两数组/字符串正反拼接相比作为比较函数的做法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用数组代替关于ascii字符的哈希表时，可显著降低耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积累多指针搭配动规，避免再回头遍历的处理架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组中的逆序对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握线段树的所有基本操作，包括原理和代码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用归并可以正确地跟踪所有逆序对，但快排、堆排不行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,17 +1614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="5" width="50.77734375" customWidth="1"/>
+    <col min="4" max="7" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,6 +1685,9 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1071,9 +1719,12 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -1219,7 +1870,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -1468,6 +2119,12 @@
       <c r="B35" t="s">
         <v>116</v>
       </c>
+      <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1756,6 +2413,608 @@
       </c>
       <c r="D55" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>198</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>200</v>
+      </c>
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>207</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>208</v>
+      </c>
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>215</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>221</v>
+      </c>
+      <c r="B62" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>234</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>236</v>
+      </c>
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>239</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" t="s">
+        <v>190</v>
+      </c>
+      <c r="G67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>240</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>279</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>283</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>287</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>297</v>
+      </c>
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>300</v>
+      </c>
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>301</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>309</v>
+      </c>
+      <c r="B75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>312</v>
+      </c>
+      <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>280</v>
+      </c>
+      <c r="D76" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>322</v>
+      </c>
+      <c r="B77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>337</v>
+      </c>
+      <c r="B78" t="s">
+        <v>220</v>
+      </c>
+      <c r="C78" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>338</v>
+      </c>
+      <c r="B79" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>347</v>
+      </c>
+      <c r="B80" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>394</v>
+      </c>
+      <c r="B81" t="s">
+        <v>230</v>
+      </c>
+      <c r="C81" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>399</v>
+      </c>
+      <c r="B82" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>406</v>
+      </c>
+      <c r="B83" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>416</v>
+      </c>
+      <c r="B84" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>437</v>
+      </c>
+      <c r="B85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>438</v>
+      </c>
+      <c r="B86" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" t="s">
+        <v>246</v>
+      </c>
+      <c r="D86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>448</v>
+      </c>
+      <c r="B87" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>461</v>
+      </c>
+      <c r="B88" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>494</v>
+      </c>
+      <c r="B89" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>538</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="C90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>543</v>
+      </c>
+      <c r="B91" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>560</v>
+      </c>
+      <c r="B92" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>581</v>
+      </c>
+      <c r="B93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>621</v>
+      </c>
+      <c r="B95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>647</v>
+      </c>
+      <c r="B96" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>739</v>
+      </c>
+      <c r="B97" t="s">
+        <v>275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>343</v>
+      </c>
+      <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -1766,6 +3025,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF0BA4C-E279-437F-894F-A422D7E9D5F6}">
+  <dimension ref="A1:E97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="7" width="50.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18EACFD-0F11-4F03-BC2E-501A0747B58F}">
   <dimension ref="A1"/>
   <sheetViews>
